--- a/po_analysis_by_asin/B09VK3W3Y3_po_data.xlsx
+++ b/po_analysis_by_asin/B09VK3W3Y3_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,193 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45369</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B25" t="n">
         <v>42</v>
       </c>
     </row>
@@ -469,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +675,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>42</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09VK3W3Y3_po_data.xlsx
+++ b/po_analysis_by_asin/B09VK3W3Y3_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,14 +634,6 @@
         <v>570</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45375.99999999999</v>
-      </c>
-      <c r="B25" t="n">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -653,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,14 +745,6 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B09VK3W3Y3_po_data.xlsx
+++ b/po_analysis_by_asin/B09VK3W3Y3_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -661,7 +662,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -743,6 +744,481 @@
       </c>
       <c r="B11" t="n">
         <v>1092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-182.1789849798427</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.90769153989369</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-133.9517447626357</v>
+      </c>
+      <c r="D3" t="n">
+        <v>106.8505465216911</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-127.1180501492676</v>
+      </c>
+      <c r="D4" t="n">
+        <v>118.0634441594494</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-132.2442309535334</v>
+      </c>
+      <c r="D5" t="n">
+        <v>119.1821479661968</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-110.1307669824207</v>
+      </c>
+      <c r="D6" t="n">
+        <v>136.9115789166458</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>33</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-90.72937200834735</v>
+      </c>
+      <c r="D7" t="n">
+        <v>155.2440568966181</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-65.77322278821403</v>
+      </c>
+      <c r="D8" t="n">
+        <v>178.2774383335845</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-58.73770244564246</v>
+      </c>
+      <c r="D9" t="n">
+        <v>196.7360556944332</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>83</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-33.53912286464817</v>
+      </c>
+      <c r="D10" t="n">
+        <v>205.3916609430989</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>88</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-30.83210786859244</v>
+      </c>
+      <c r="D11" t="n">
+        <v>207.2444872243296</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>94</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-29.10717276702929</v>
+      </c>
+      <c r="D12" t="n">
+        <v>212.5379526071794</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-22.61116942871281</v>
+      </c>
+      <c r="D13" t="n">
+        <v>225.6861498969523</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>105</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-19.55960910367768</v>
+      </c>
+      <c r="D14" t="n">
+        <v>224.4577732309023</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>110</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-5.91737412937778</v>
+      </c>
+      <c r="D15" t="n">
+        <v>240.7553799105989</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>138</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18.42667073189259</v>
+      </c>
+      <c r="D16" t="n">
+        <v>253.8558768002903</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>143</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.33851656608248</v>
+      </c>
+      <c r="D17" t="n">
+        <v>269.4110970258065</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>155</v>
+      </c>
+      <c r="C18" t="n">
+        <v>35.76782734346265</v>
+      </c>
+      <c r="D18" t="n">
+        <v>292.5703900654796</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>160</v>
+      </c>
+      <c r="C19" t="n">
+        <v>38.86011423857966</v>
+      </c>
+      <c r="D19" t="n">
+        <v>283.8874390391393</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>166</v>
+      </c>
+      <c r="C20" t="n">
+        <v>37.43826982815676</v>
+      </c>
+      <c r="D20" t="n">
+        <v>285.3969480753717</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>171</v>
+      </c>
+      <c r="C21" t="n">
+        <v>52.64274233264238</v>
+      </c>
+      <c r="D21" t="n">
+        <v>299.8404436364607</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>177</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50.91553364620498</v>
+      </c>
+      <c r="D22" t="n">
+        <v>290.9926192895553</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>182</v>
+      </c>
+      <c r="C23" t="n">
+        <v>53.2470242761696</v>
+      </c>
+      <c r="D23" t="n">
+        <v>308.7127161013501</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>193</v>
+      </c>
+      <c r="C24" t="n">
+        <v>66.04885947992175</v>
+      </c>
+      <c r="D24" t="n">
+        <v>310.0386353567549</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>199</v>
+      </c>
+      <c r="C25" t="n">
+        <v>68.68683428151289</v>
+      </c>
+      <c r="D25" t="n">
+        <v>315.3108809941215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>204</v>
+      </c>
+      <c r="C26" t="n">
+        <v>79.131924147993</v>
+      </c>
+      <c r="D26" t="n">
+        <v>326.1384203178901</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>210</v>
+      </c>
+      <c r="C27" t="n">
+        <v>91.87796413633042</v>
+      </c>
+      <c r="D27" t="n">
+        <v>343.8092656045754</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>215</v>
+      </c>
+      <c r="C28" t="n">
+        <v>94.66921847006616</v>
+      </c>
+      <c r="D28" t="n">
+        <v>335.1815206533572</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>221</v>
+      </c>
+      <c r="C29" t="n">
+        <v>105.7249632288048</v>
+      </c>
+      <c r="D29" t="n">
+        <v>352.2585876650641</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>226</v>
+      </c>
+      <c r="C30" t="n">
+        <v>110.4040440094482</v>
+      </c>
+      <c r="D30" t="n">
+        <v>347.6673332392307</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>232</v>
+      </c>
+      <c r="C31" t="n">
+        <v>115.1150094188369</v>
+      </c>
+      <c r="D31" t="n">
+        <v>353.4800586169916</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>237</v>
+      </c>
+      <c r="C32" t="n">
+        <v>115.9026025270062</v>
+      </c>
+      <c r="D32" t="n">
+        <v>363.3745403301159</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09VK3W3Y3_po_data.xlsx
+++ b/po_analysis_by_asin/B09VK3W3Y3_po_data.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,16 +776,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -794,12 +784,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-182.1789849798427</v>
-      </c>
-      <c r="D2" t="n">
-        <v>67.90769153989369</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -808,12 +792,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-133.9517447626357</v>
-      </c>
-      <c r="D3" t="n">
-        <v>106.8505465216911</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -822,12 +800,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>-127.1180501492676</v>
-      </c>
-      <c r="D4" t="n">
-        <v>118.0634441594494</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -836,12 +808,6 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>-132.2442309535334</v>
-      </c>
-      <c r="D5" t="n">
-        <v>119.1821479661968</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -850,12 +816,6 @@
       <c r="B6" t="n">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
-        <v>-110.1307669824207</v>
-      </c>
-      <c r="D6" t="n">
-        <v>136.9115789166458</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -864,12 +824,6 @@
       <c r="B7" t="n">
         <v>33</v>
       </c>
-      <c r="C7" t="n">
-        <v>-90.72937200834735</v>
-      </c>
-      <c r="D7" t="n">
-        <v>155.2440568966181</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -878,12 +832,6 @@
       <c r="B8" t="n">
         <v>60</v>
       </c>
-      <c r="C8" t="n">
-        <v>-65.77322278821403</v>
-      </c>
-      <c r="D8" t="n">
-        <v>178.2774383335845</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -892,12 +840,6 @@
       <c r="B9" t="n">
         <v>77</v>
       </c>
-      <c r="C9" t="n">
-        <v>-58.73770244564246</v>
-      </c>
-      <c r="D9" t="n">
-        <v>196.7360556944332</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -906,12 +848,6 @@
       <c r="B10" t="n">
         <v>83</v>
       </c>
-      <c r="C10" t="n">
-        <v>-33.53912286464817</v>
-      </c>
-      <c r="D10" t="n">
-        <v>205.3916609430989</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -920,12 +856,6 @@
       <c r="B11" t="n">
         <v>88</v>
       </c>
-      <c r="C11" t="n">
-        <v>-30.83210786859244</v>
-      </c>
-      <c r="D11" t="n">
-        <v>207.2444872243296</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -934,12 +864,6 @@
       <c r="B12" t="n">
         <v>94</v>
       </c>
-      <c r="C12" t="n">
-        <v>-29.10717276702929</v>
-      </c>
-      <c r="D12" t="n">
-        <v>212.5379526071794</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -948,12 +872,6 @@
       <c r="B13" t="n">
         <v>99</v>
       </c>
-      <c r="C13" t="n">
-        <v>-22.61116942871281</v>
-      </c>
-      <c r="D13" t="n">
-        <v>225.6861498969523</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -962,12 +880,6 @@
       <c r="B14" t="n">
         <v>105</v>
       </c>
-      <c r="C14" t="n">
-        <v>-19.55960910367768</v>
-      </c>
-      <c r="D14" t="n">
-        <v>224.4577732309023</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -976,12 +888,6 @@
       <c r="B15" t="n">
         <v>110</v>
       </c>
-      <c r="C15" t="n">
-        <v>-5.91737412937778</v>
-      </c>
-      <c r="D15" t="n">
-        <v>240.7553799105989</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -990,12 +896,6 @@
       <c r="B16" t="n">
         <v>138</v>
       </c>
-      <c r="C16" t="n">
-        <v>18.42667073189259</v>
-      </c>
-      <c r="D16" t="n">
-        <v>253.8558768002903</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1004,12 +904,6 @@
       <c r="B17" t="n">
         <v>143</v>
       </c>
-      <c r="C17" t="n">
-        <v>14.33851656608248</v>
-      </c>
-      <c r="D17" t="n">
-        <v>269.4110970258065</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1018,12 +912,6 @@
       <c r="B18" t="n">
         <v>155</v>
       </c>
-      <c r="C18" t="n">
-        <v>35.76782734346265</v>
-      </c>
-      <c r="D18" t="n">
-        <v>292.5703900654796</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1032,12 +920,6 @@
       <c r="B19" t="n">
         <v>160</v>
       </c>
-      <c r="C19" t="n">
-        <v>38.86011423857966</v>
-      </c>
-      <c r="D19" t="n">
-        <v>283.8874390391393</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1046,12 +928,6 @@
       <c r="B20" t="n">
         <v>166</v>
       </c>
-      <c r="C20" t="n">
-        <v>37.43826982815676</v>
-      </c>
-      <c r="D20" t="n">
-        <v>285.3969480753717</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1060,12 +936,6 @@
       <c r="B21" t="n">
         <v>171</v>
       </c>
-      <c r="C21" t="n">
-        <v>52.64274233264238</v>
-      </c>
-      <c r="D21" t="n">
-        <v>299.8404436364607</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1074,12 +944,6 @@
       <c r="B22" t="n">
         <v>177</v>
       </c>
-      <c r="C22" t="n">
-        <v>50.91553364620498</v>
-      </c>
-      <c r="D22" t="n">
-        <v>290.9926192895553</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1088,12 +952,6 @@
       <c r="B23" t="n">
         <v>182</v>
       </c>
-      <c r="C23" t="n">
-        <v>53.2470242761696</v>
-      </c>
-      <c r="D23" t="n">
-        <v>308.7127161013501</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1102,12 +960,6 @@
       <c r="B24" t="n">
         <v>193</v>
       </c>
-      <c r="C24" t="n">
-        <v>66.04885947992175</v>
-      </c>
-      <c r="D24" t="n">
-        <v>310.0386353567549</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1116,12 +968,6 @@
       <c r="B25" t="n">
         <v>199</v>
       </c>
-      <c r="C25" t="n">
-        <v>68.68683428151289</v>
-      </c>
-      <c r="D25" t="n">
-        <v>315.3108809941215</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1130,12 +976,6 @@
       <c r="B26" t="n">
         <v>204</v>
       </c>
-      <c r="C26" t="n">
-        <v>79.131924147993</v>
-      </c>
-      <c r="D26" t="n">
-        <v>326.1384203178901</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1144,12 +984,6 @@
       <c r="B27" t="n">
         <v>210</v>
       </c>
-      <c r="C27" t="n">
-        <v>91.87796413633042</v>
-      </c>
-      <c r="D27" t="n">
-        <v>343.8092656045754</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1158,12 +992,6 @@
       <c r="B28" t="n">
         <v>215</v>
       </c>
-      <c r="C28" t="n">
-        <v>94.66921847006616</v>
-      </c>
-      <c r="D28" t="n">
-        <v>335.1815206533572</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1172,12 +1000,6 @@
       <c r="B29" t="n">
         <v>221</v>
       </c>
-      <c r="C29" t="n">
-        <v>105.7249632288048</v>
-      </c>
-      <c r="D29" t="n">
-        <v>352.2585876650641</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1186,12 +1008,6 @@
       <c r="B30" t="n">
         <v>226</v>
       </c>
-      <c r="C30" t="n">
-        <v>110.4040440094482</v>
-      </c>
-      <c r="D30" t="n">
-        <v>347.6673332392307</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1200,12 +1016,6 @@
       <c r="B31" t="n">
         <v>232</v>
       </c>
-      <c r="C31" t="n">
-        <v>115.1150094188369</v>
-      </c>
-      <c r="D31" t="n">
-        <v>353.4800586169916</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1213,12 +1023,6 @@
       </c>
       <c r="B32" t="n">
         <v>237</v>
-      </c>
-      <c r="C32" t="n">
-        <v>115.9026025270062</v>
-      </c>
-      <c r="D32" t="n">
-        <v>363.3745403301159</v>
       </c>
     </row>
   </sheetData>
